--- a/data/rekap data 2021.xlsx
+++ b/data/rekap data 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C2F97-0782-4F45-9138-CAC4612FBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6862EC-DB92-4C2A-BECC-3125CFED1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5AF46FB8-2962-493F-8743-1EA874850232}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Per Tiga Bulan</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>agregat</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F216C-D313-4547-BA85-55A1A79F2B0A}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,6 +1349,359 @@
         <v>75</v>
       </c>
     </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>B24+B29+B34</f>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:M39" si="3">C24+C29+C34</f>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <f>SUM(B39:M39)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <f>B25+B30+B35</f>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:M40" si="4">C25+C30+C35</f>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <f>SUM(B40:M40)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <f>B43+C39</f>
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:M43" si="5">C43+D39</f>
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f>B44+C40</f>
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:M44" si="6">C44+D40</f>
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <f>B43/(B43+B44)*100</f>
+        <v>80</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" ref="C45:M45" si="7">C43/(C43+C44)*100</f>
+        <v>80.952380952380949</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="7"/>
+        <v>80.645161290322577</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="7"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="7"/>
+        <v>76.699029126213588</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="7"/>
+        <v>77.5</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="7"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="7"/>
+        <v>70.899470899470899</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="7"/>
+        <v>71.497584541062793</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="7"/>
+        <v>71.673819742489272</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="7"/>
+        <v>72.200772200772207</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="7"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:W1"/>

--- a/data/rekap data 2021.xlsx
+++ b/data/rekap data 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6862EC-DB92-4C2A-BECC-3125CFED1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51717759-478B-4B4B-B986-11236A1FD9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5AF46FB8-2962-493F-8743-1EA874850232}"/>
   </bookViews>
@@ -116,7 +116,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,20 +152,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F216C-D313-4547-BA85-55A1A79F2B0A}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:M45"/>
+      <selection activeCell="B41" sqref="B41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,31 +496,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -625,31 +638,31 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -746,21 +759,21 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -897,55 +910,55 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="3">
         <f>B24/(B24+B25)*100</f>
         <v>85.714285714285708</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:N26" si="0">C24/(C24+C25)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>64.285714285714292</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1095,55 +1108,55 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="3">
         <f>B29/(B29+B30)*100</f>
         <v>75</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <f t="shared" ref="C31:N31" si="1">C29/(C29+C30)*100</f>
         <v>100</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <f t="shared" si="1"/>
         <v>57.692307692307686</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <f t="shared" si="1"/>
         <v>58.82352941176471</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <f t="shared" si="1"/>
         <v>71.074380165289256</v>
       </c>
@@ -1296,55 +1309,55 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="3">
         <f>B34/(B34+B35)*100</f>
         <v>80</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <f t="shared" ref="C36:M36" si="2">C34/(C34+C35)*100</f>
         <v>75</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <f t="shared" si="2"/>
         <v>90.909090909090907</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>44.444444444444443</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <f t="shared" si="2"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <f>N34/(N34+N35)*100</f>
         <v>75</v>
       </c>
@@ -1507,198 +1520,248 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>8</v>
-      </c>
-      <c r="J42">
-        <v>9</v>
-      </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
-      <c r="L42">
-        <v>11</v>
-      </c>
-      <c r="M42">
-        <v>12</v>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f>B39/(B39+B40)*100</f>
+        <v>80</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:M41" si="5">C39/(C39+C40)*100</f>
+        <v>82.35294117647058</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="5"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="5"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="5"/>
+        <v>82.35294117647058</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="5"/>
+        <v>53.658536585365859</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="5"/>
+        <v>67.857142857142861</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="5"/>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="5"/>
+        <v>73.076923076923066</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="5"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="5"/>
+        <v>84.615384615384613</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <f>B43+C39</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:M43" si="5">C43+D39</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <f t="shared" si="5"/>
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="M43">
-        <f t="shared" si="5"/>
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <f>B44+C40</f>
-        <v>8</v>
+        <f>B44+C39</f>
+        <v>34</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:M44" si="6">C44+D40</f>
-        <v>12</v>
+        <f t="shared" ref="D44:M44" si="6">C44+D39</f>
+        <v>50</v>
       </c>
       <c r="E44">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I44">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J44">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="K44">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <f>B45+C40</f>
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:M45" si="7">C45+D40</f>
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
-        <f>B43/(B43+B44)*100</f>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <f>B44/(B44+B45)*100</f>
         <v>80</v>
       </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:M45" si="7">C43/(C43+C44)*100</f>
+      <c r="C46" s="2">
+        <f t="shared" ref="C46:M46" si="8">C44/(C44+C45)*100</f>
         <v>80.952380952380949</v>
       </c>
-      <c r="D45" s="3">
-        <f t="shared" si="7"/>
+      <c r="D46" s="2">
+        <f t="shared" si="8"/>
         <v>80.645161290322577</v>
       </c>
-      <c r="E45" s="3">
-        <f t="shared" si="7"/>
+      <c r="E46" s="2">
+        <f t="shared" si="8"/>
         <v>76.19047619047619</v>
       </c>
-      <c r="F45" s="3">
-        <f t="shared" si="7"/>
+      <c r="F46" s="2">
+        <f t="shared" si="8"/>
         <v>76.699029126213588</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" si="7"/>
+      <c r="G46" s="2">
+        <f t="shared" si="8"/>
         <v>77.5</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="7"/>
+      <c r="H46" s="2">
+        <f t="shared" si="8"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" si="7"/>
+      <c r="I46" s="2">
+        <f t="shared" si="8"/>
         <v>70.899470899470899</v>
       </c>
-      <c r="J45" s="3">
-        <f t="shared" si="7"/>
+      <c r="J46" s="2">
+        <f t="shared" si="8"/>
         <v>71.497584541062793</v>
       </c>
-      <c r="K45" s="3">
-        <f t="shared" si="7"/>
+      <c r="K46" s="2">
+        <f t="shared" si="8"/>
         <v>71.673819742489272</v>
       </c>
-      <c r="L45" s="3">
-        <f t="shared" si="7"/>
+      <c r="L46" s="2">
+        <f t="shared" si="8"/>
         <v>72.200772200772207</v>
       </c>
-      <c r="M45" s="3">
-        <f t="shared" si="7"/>
+      <c r="M46" s="2">
+        <f t="shared" si="8"/>
         <v>73.333333333333329</v>
       </c>
     </row>
